--- a/tree/tree03.xlsx
+++ b/tree/tree03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuke\Desktop\guest\1130826\tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AC97BC6-C7A4-4C3D-AAB7-CC80FE2BBD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7E288E9-AAD0-4610-BEE1-C12FEE2EAB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CA16FEF3-4787-468B-94EE-76BE82BCE9D9}"/>
   </bookViews>
@@ -435,10 +435,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://xtjh-aa0487.byethost8.com/math/book1/1-1p25自我評量6.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>p25挑錯題</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -633,6 +629,10 @@
   </si>
   <si>
     <t>資料的連結網址</t>
+  </si>
+  <si>
+    <t>http://xtjh-aa0487.byethost8.com/math/book1/1-1/p25自我評量6.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1017,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33B8439-9079-4DF4-BB05-62730084EFF9}">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A18" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1030,16 +1030,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" t="s">
         <v>157</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>158</v>
-      </c>
-      <c r="D1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1501,7 +1501,7 @@
         <v>24</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1512,7 +1512,7 @@
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>63</v>
@@ -1529,7 +1529,7 @@
         <v>26</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1543,7 +1543,7 @@
         <v>27</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1557,7 +1557,7 @@
         <v>29</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1585,7 +1585,7 @@
         <v>30</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1599,7 +1599,7 @@
         <v>31</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1613,7 +1613,7 @@
         <v>32</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1627,7 +1627,7 @@
         <v>33</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1641,7 +1641,7 @@
         <v>34</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1655,7 +1655,7 @@
         <v>35</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1669,7 +1669,7 @@
         <v>36</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1680,10 +1680,10 @@
         <v>25</v>
       </c>
       <c r="C47" t="s">
+        <v>119</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1694,10 +1694,10 @@
         <v>25</v>
       </c>
       <c r="C48" t="s">
+        <v>121</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1711,7 +1711,7 @@
         <v>37</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1725,7 +1725,7 @@
         <v>38</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1739,7 +1739,7 @@
         <v>39</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1753,7 +1753,7 @@
         <v>40</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1767,7 +1767,7 @@
         <v>41</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1781,7 +1781,7 @@
         <v>44</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1795,7 +1795,7 @@
         <v>45</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1809,7 +1809,7 @@
         <v>42</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1823,7 +1823,7 @@
         <v>46</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1837,7 +1837,7 @@
         <v>43</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1851,7 +1851,7 @@
         <v>47</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1865,7 +1865,7 @@
         <v>48</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1879,7 +1879,7 @@
         <v>49</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1893,7 +1893,7 @@
         <v>50</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1907,7 +1907,7 @@
         <v>51</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1921,7 +1921,7 @@
         <v>52</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1935,7 +1935,7 @@
         <v>54</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1949,7 +1949,7 @@
         <v>53</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1960,10 +1960,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="s">
+        <v>146</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1977,7 +1977,7 @@
         <v>55</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1991,7 +1991,7 @@
         <v>56</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -2005,7 +2005,7 @@
         <v>57</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -2019,7 +2019,7 @@
         <v>58</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -2033,7 +2033,7 @@
         <v>59</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -2047,7 +2047,7 @@
         <v>60</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -2058,10 +2058,10 @@
         <v>25</v>
       </c>
       <c r="C74" t="s">
+        <v>150</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -2075,7 +2075,7 @@
         <v>61</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -2089,7 +2089,7 @@
         <v>62</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -2100,10 +2100,10 @@
         <v>25</v>
       </c>
       <c r="C77" t="s">
+        <v>153</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2140,50 +2140,50 @@
     <hyperlink ref="D29" r:id="rId29" xr:uid="{E8A1927B-9B62-458E-9D1E-5D610A63D1AF}"/>
     <hyperlink ref="D30:D32" r:id="rId30" display="http://xtjh-aa0487.byethost8.com/math/book1/1-1/p24自我評量1.png" xr:uid="{89260721-B190-43D1-B615-7AA02615829D}"/>
     <hyperlink ref="D33" r:id="rId31" xr:uid="{A53A6162-9260-479B-9482-688A7DF21518}"/>
-    <hyperlink ref="D34" r:id="rId32" xr:uid="{9EBF35AA-EF9D-4A4E-B8B7-417E1EA60C37}"/>
-    <hyperlink ref="D35" r:id="rId33" xr:uid="{C87CEED4-FBEB-42EA-B5F4-8177CE054038}"/>
-    <hyperlink ref="D36" r:id="rId34" xr:uid="{FDFA2906-F547-4EC1-866A-336AE739F793}"/>
-    <hyperlink ref="D37" r:id="rId35" xr:uid="{15352281-A6AC-4A7B-9778-6CA124822484}"/>
-    <hyperlink ref="D38" r:id="rId36" xr:uid="{15FF09CF-922F-43DE-8951-FDD6CEDB082E}"/>
-    <hyperlink ref="D40" r:id="rId37" xr:uid="{7BE912DA-0B6A-4417-9ED4-FE132774DF01}"/>
-    <hyperlink ref="D42" r:id="rId38" xr:uid="{5A879B32-EA58-4EAA-A21B-3AB43118EC5A}"/>
-    <hyperlink ref="D46" r:id="rId39" xr:uid="{1EB72FBA-5C27-4843-A3A4-3E13D120D8DB}"/>
-    <hyperlink ref="D39" r:id="rId40" display="http://xtjh-aa0487.byethost8.com/math/book1/1-2/p27隨堂.png" xr:uid="{FC821931-8DE5-4C9A-9AAC-E8102D498AD3}"/>
-    <hyperlink ref="D41" r:id="rId41" xr:uid="{10833519-16C9-4B0A-9817-D2FB38935B18}"/>
-    <hyperlink ref="D43" r:id="rId42" xr:uid="{F759F974-838A-4E1A-917E-08D1037A0184}"/>
-    <hyperlink ref="D45" r:id="rId43" xr:uid="{71819BD4-B8A8-4135-B406-028B5C0ED3A3}"/>
-    <hyperlink ref="D44" r:id="rId44" xr:uid="{B73CD2BF-08AD-40A2-8603-C3C2F998F651}"/>
-    <hyperlink ref="D47:D50" r:id="rId45" display="http://xtjh-aa0487.byethost8.com/math/book1/1-2/p34例5.png" xr:uid="{F6BB2430-21E1-4F46-A7E9-54DFBA5E4FE5}"/>
-    <hyperlink ref="D47" r:id="rId46" xr:uid="{8ED4D171-61D0-4D9A-ADBC-1B0E362B1B2D}"/>
-    <hyperlink ref="D48" r:id="rId47" xr:uid="{B2A78DA6-15BF-4353-B0F2-3F9DF2F6C9B9}"/>
-    <hyperlink ref="D49" r:id="rId48" xr:uid="{3FF72FB4-31F9-4E07-BCF1-7009F7654AC3}"/>
-    <hyperlink ref="D50" r:id="rId49" xr:uid="{741D8432-0B81-4972-A524-6C6310D1DE92}"/>
-    <hyperlink ref="D51:D52" r:id="rId50" display="http://xtjh-aa0487.byethost8.com/math/book1/1-2/p34例5.png" xr:uid="{80E8BE27-E4D4-4D56-93A3-73C3BB025A3B}"/>
-    <hyperlink ref="D51" r:id="rId51" xr:uid="{733D5649-BBCD-4E78-A9CB-5DF31BD0D295}"/>
-    <hyperlink ref="D52" r:id="rId52" xr:uid="{C405DCA3-8138-4626-BED7-4C73482DCED7}"/>
-    <hyperlink ref="D53" r:id="rId53" xr:uid="{4046F51E-ABF9-41CA-BCE2-081BF25814F5}"/>
-    <hyperlink ref="D54:D55" r:id="rId54" display="http://xtjh-aa0487.byethost8.com/math/book1/1-2/p34例5.png" xr:uid="{E8FD7A1C-2313-4CDA-81F2-64E351A1FB53}"/>
-    <hyperlink ref="D54" r:id="rId55" xr:uid="{6A4B9435-604D-4C1B-AB63-A806BD5C59CA}"/>
-    <hyperlink ref="D55" r:id="rId56" xr:uid="{B96FA244-A912-4CEC-BA07-81A837282133}"/>
-    <hyperlink ref="D56" r:id="rId57" xr:uid="{24D5F9F4-72D1-4C55-8A3F-E699159068A6}"/>
-    <hyperlink ref="D57" r:id="rId58" xr:uid="{7A64B6E9-5B6B-4FA2-A970-F37EB3239883}"/>
-    <hyperlink ref="D58" r:id="rId59" xr:uid="{411F9D04-543E-4BDE-8E5D-5DBBE4DC875E}"/>
-    <hyperlink ref="D60" r:id="rId60" xr:uid="{7938CC28-DAA7-43C7-9C82-EC16E18B243B}"/>
-    <hyperlink ref="D62" r:id="rId61" xr:uid="{409F41FA-08AA-4238-A51A-EC64E15C8D3B}"/>
-    <hyperlink ref="D64" r:id="rId62" xr:uid="{CC5C2FCD-FEEA-4187-AB56-9F338BA38FF6}"/>
-    <hyperlink ref="D59" r:id="rId63" xr:uid="{829B1F0F-8570-4BB9-945B-B082801556F2}"/>
-    <hyperlink ref="D61" r:id="rId64" xr:uid="{B5C91745-51DB-4CA6-8A88-8EEE2BDDD7B4}"/>
-    <hyperlink ref="D63" r:id="rId65" xr:uid="{EA50CB10-AE2B-4EEB-81F2-DD3EE2079D13}"/>
-    <hyperlink ref="D65" r:id="rId66" xr:uid="{E8A9E684-F85A-472C-92AB-AFA3970F3D79}"/>
-    <hyperlink ref="D66" r:id="rId67" xr:uid="{0994ED72-4ACA-4735-B1DD-25EF4860F289}"/>
-    <hyperlink ref="D67" r:id="rId68" xr:uid="{00B65A08-0F54-4671-ACD1-9BFC6D7E390C}"/>
-    <hyperlink ref="D68:D73" r:id="rId69" display="http://xtjh-aa0487.byethost8.com/math/book1/1-2/p46重點1.png" xr:uid="{6318AA02-65E5-473F-A56E-E500D5DC6768}"/>
-    <hyperlink ref="D72" r:id="rId70" xr:uid="{D69DEB70-368C-4FE7-8510-A3DDE0C7D763}"/>
-    <hyperlink ref="D73" r:id="rId71" xr:uid="{CF098BAC-600F-40F3-8356-D985B9BBEEA9}"/>
-    <hyperlink ref="D74" r:id="rId72" xr:uid="{60F68F6E-8A2D-4F61-A45D-7DF0E9781481}"/>
-    <hyperlink ref="D75:D76" r:id="rId73" display="http://xtjh-aa0487.byethost8.com/math/book1/1-2/p48自我評量1.png" xr:uid="{641AAF4E-855C-4513-9014-8B1837FFE741}"/>
-    <hyperlink ref="D77" r:id="rId74" xr:uid="{0D9E6F85-F34F-49B6-9055-9B5E6552A210}"/>
-    <hyperlink ref="D76" r:id="rId75" xr:uid="{73DC6E12-9708-47EB-A9C2-64A2BA536BDA}"/>
+    <hyperlink ref="D35" r:id="rId32" xr:uid="{C87CEED4-FBEB-42EA-B5F4-8177CE054038}"/>
+    <hyperlink ref="D36" r:id="rId33" xr:uid="{FDFA2906-F547-4EC1-866A-336AE739F793}"/>
+    <hyperlink ref="D37" r:id="rId34" xr:uid="{15352281-A6AC-4A7B-9778-6CA124822484}"/>
+    <hyperlink ref="D38" r:id="rId35" xr:uid="{15FF09CF-922F-43DE-8951-FDD6CEDB082E}"/>
+    <hyperlink ref="D40" r:id="rId36" xr:uid="{7BE912DA-0B6A-4417-9ED4-FE132774DF01}"/>
+    <hyperlink ref="D42" r:id="rId37" xr:uid="{5A879B32-EA58-4EAA-A21B-3AB43118EC5A}"/>
+    <hyperlink ref="D46" r:id="rId38" xr:uid="{1EB72FBA-5C27-4843-A3A4-3E13D120D8DB}"/>
+    <hyperlink ref="D39" r:id="rId39" display="http://xtjh-aa0487.byethost8.com/math/book1/1-2/p27隨堂.png" xr:uid="{FC821931-8DE5-4C9A-9AAC-E8102D498AD3}"/>
+    <hyperlink ref="D41" r:id="rId40" xr:uid="{10833519-16C9-4B0A-9817-D2FB38935B18}"/>
+    <hyperlink ref="D43" r:id="rId41" xr:uid="{F759F974-838A-4E1A-917E-08D1037A0184}"/>
+    <hyperlink ref="D45" r:id="rId42" xr:uid="{71819BD4-B8A8-4135-B406-028B5C0ED3A3}"/>
+    <hyperlink ref="D44" r:id="rId43" xr:uid="{B73CD2BF-08AD-40A2-8603-C3C2F998F651}"/>
+    <hyperlink ref="D47:D50" r:id="rId44" display="http://xtjh-aa0487.byethost8.com/math/book1/1-2/p34例5.png" xr:uid="{F6BB2430-21E1-4F46-A7E9-54DFBA5E4FE5}"/>
+    <hyperlink ref="D47" r:id="rId45" xr:uid="{8ED4D171-61D0-4D9A-ADBC-1B0E362B1B2D}"/>
+    <hyperlink ref="D48" r:id="rId46" xr:uid="{B2A78DA6-15BF-4353-B0F2-3F9DF2F6C9B9}"/>
+    <hyperlink ref="D49" r:id="rId47" xr:uid="{3FF72FB4-31F9-4E07-BCF1-7009F7654AC3}"/>
+    <hyperlink ref="D50" r:id="rId48" xr:uid="{741D8432-0B81-4972-A524-6C6310D1DE92}"/>
+    <hyperlink ref="D51:D52" r:id="rId49" display="http://xtjh-aa0487.byethost8.com/math/book1/1-2/p34例5.png" xr:uid="{80E8BE27-E4D4-4D56-93A3-73C3BB025A3B}"/>
+    <hyperlink ref="D51" r:id="rId50" xr:uid="{733D5649-BBCD-4E78-A9CB-5DF31BD0D295}"/>
+    <hyperlink ref="D52" r:id="rId51" xr:uid="{C405DCA3-8138-4626-BED7-4C73482DCED7}"/>
+    <hyperlink ref="D53" r:id="rId52" xr:uid="{4046F51E-ABF9-41CA-BCE2-081BF25814F5}"/>
+    <hyperlink ref="D54:D55" r:id="rId53" display="http://xtjh-aa0487.byethost8.com/math/book1/1-2/p34例5.png" xr:uid="{E8FD7A1C-2313-4CDA-81F2-64E351A1FB53}"/>
+    <hyperlink ref="D54" r:id="rId54" xr:uid="{6A4B9435-604D-4C1B-AB63-A806BD5C59CA}"/>
+    <hyperlink ref="D55" r:id="rId55" xr:uid="{B96FA244-A912-4CEC-BA07-81A837282133}"/>
+    <hyperlink ref="D56" r:id="rId56" xr:uid="{24D5F9F4-72D1-4C55-8A3F-E699159068A6}"/>
+    <hyperlink ref="D57" r:id="rId57" xr:uid="{7A64B6E9-5B6B-4FA2-A970-F37EB3239883}"/>
+    <hyperlink ref="D58" r:id="rId58" xr:uid="{411F9D04-543E-4BDE-8E5D-5DBBE4DC875E}"/>
+    <hyperlink ref="D60" r:id="rId59" xr:uid="{7938CC28-DAA7-43C7-9C82-EC16E18B243B}"/>
+    <hyperlink ref="D62" r:id="rId60" xr:uid="{409F41FA-08AA-4238-A51A-EC64E15C8D3B}"/>
+    <hyperlink ref="D64" r:id="rId61" xr:uid="{CC5C2FCD-FEEA-4187-AB56-9F338BA38FF6}"/>
+    <hyperlink ref="D59" r:id="rId62" xr:uid="{829B1F0F-8570-4BB9-945B-B082801556F2}"/>
+    <hyperlink ref="D61" r:id="rId63" xr:uid="{B5C91745-51DB-4CA6-8A88-8EEE2BDDD7B4}"/>
+    <hyperlink ref="D63" r:id="rId64" xr:uid="{EA50CB10-AE2B-4EEB-81F2-DD3EE2079D13}"/>
+    <hyperlink ref="D65" r:id="rId65" xr:uid="{E8A9E684-F85A-472C-92AB-AFA3970F3D79}"/>
+    <hyperlink ref="D66" r:id="rId66" xr:uid="{0994ED72-4ACA-4735-B1DD-25EF4860F289}"/>
+    <hyperlink ref="D67" r:id="rId67" xr:uid="{00B65A08-0F54-4671-ACD1-9BFC6D7E390C}"/>
+    <hyperlink ref="D68:D73" r:id="rId68" display="http://xtjh-aa0487.byethost8.com/math/book1/1-2/p46重點1.png" xr:uid="{6318AA02-65E5-473F-A56E-E500D5DC6768}"/>
+    <hyperlink ref="D72" r:id="rId69" xr:uid="{D69DEB70-368C-4FE7-8510-A3DDE0C7D763}"/>
+    <hyperlink ref="D73" r:id="rId70" xr:uid="{CF098BAC-600F-40F3-8356-D985B9BBEEA9}"/>
+    <hyperlink ref="D74" r:id="rId71" xr:uid="{60F68F6E-8A2D-4F61-A45D-7DF0E9781481}"/>
+    <hyperlink ref="D75:D76" r:id="rId72" display="http://xtjh-aa0487.byethost8.com/math/book1/1-2/p48自我評量1.png" xr:uid="{641AAF4E-855C-4513-9014-8B1837FFE741}"/>
+    <hyperlink ref="D77" r:id="rId73" xr:uid="{0D9E6F85-F34F-49B6-9055-9B5E6552A210}"/>
+    <hyperlink ref="D76" r:id="rId74" xr:uid="{73DC6E12-9708-47EB-A9C2-64A2BA536BDA}"/>
+    <hyperlink ref="D34" r:id="rId75" xr:uid="{9EBF35AA-EF9D-4A4E-B8B7-417E1EA60C37}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
